--- a/biology/Zoologie/Byronosaurus/Byronosaurus.xlsx
+++ b/biology/Zoologie/Byronosaurus/Byronosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Byronosaurus jaffei
-Byronosaurus est un genre éteint de petits dinosaures théropodes asiatiques de la famille des troodontidés, des animaux ressemblant à des oiseaux. Ce genre vivait en Mongolie où ses restes fossiles ont été retrouvés à Ukhaa Tolgod (de) dans la formation de Djadokhta. Cette formation qui date de la fin du Crétacé supérieur serait plus précisément d’âge Campanien supérieur, c'est-à-dire il y a environ entre 80 et 72 Ma (millions d'années)[1]. 
+Byronosaurus est un genre éteint de petits dinosaures théropodes asiatiques de la famille des troodontidés, des animaux ressemblant à des oiseaux. Ce genre vivait en Mongolie où ses restes fossiles ont été retrouvés à Ukhaa Tolgod (de) dans la formation de Djadokhta. Cette formation qui date de la fin du Crétacé supérieur serait plus précisément d’âge Campanien supérieur, c'est-à-dire il y a environ entre 80 et 72 Ma (millions d'années). 
 L'unique espèce rattachée au genre est Byronosaurus jaffei.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Byronosaurus jaffei a une longueur estimée de 1,50 m pour un poids de 4 kg[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Byronosaurus jaffei a une longueur estimée de 1,50 m pour un poids de 4 kg,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Mark A. Norell, Peter J. Makovicky et James M. Clark, « A new troodontid theropod from Ukhaa Tolgod, Mongolia », Journal of Vertebrate Paleontology, SVP et Taylor &amp; Francis, vol. 20, no 1,‎ 17 avril 2000, p. 7-11 (ISSN 0272-4634 et 1937-2809, OCLC 238100068, DOI 10.1671/0272-4634(2000)020[0007:ANTTFU]2.0.CO;2, lire en ligne)</t>
         </is>
